--- a/WebApplication1/ExcelFolder/Carga_Programacion_Semanal.xlsx
+++ b/WebApplication1/ExcelFolder/Carga_Programacion_Semanal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B53D8F-2462-416B-A019-A6BECBC1B6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555A2332-46D5-4EEA-A4E1-501B053E23E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
+    <workbookView xWindow="-240" yWindow="345" windowWidth="29040" windowHeight="12480" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>SOTO</t>
-  </si>
-  <si>
-    <t>16808962-7</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Cordova</t>
-  </si>
-  <si>
-    <t>Catemito</t>
   </si>
 </sst>
 </file>
@@ -126,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54286B2F-8F8B-4A1D-B837-ABCC2119E95E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A9" sqref="A9:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>44529</v>
+        <v>44562</v>
       </c>
       <c r="H2" s="2">
         <v>0.21180555555555555</v>
@@ -528,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>44530</v>
+        <v>44563</v>
       </c>
       <c r="H3" s="2">
         <v>0.21527777777777779</v>
@@ -551,7 +538,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>44531</v>
+        <v>44564</v>
       </c>
       <c r="H4" s="2">
         <v>0.21875</v>
@@ -574,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="1">
-        <v>44532</v>
+        <v>44565</v>
       </c>
       <c r="H5" s="2">
         <v>0.22222222222222199</v>
@@ -597,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>44533</v>
+        <v>44566</v>
       </c>
       <c r="H6" s="2">
         <v>0.225694444444444</v>
@@ -620,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>44534</v>
+        <v>44567</v>
       </c>
       <c r="H7" s="2">
         <v>0.22916666666666699</v>
@@ -643,171 +630,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>44535</v>
+        <v>44568</v>
       </c>
       <c r="H8" s="2">
         <v>0.23263888888888901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44529</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>44530</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>44531</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44532</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44533</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43055555555555558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <v>44534</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1">
-        <v>44535</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.43402777777777773</v>
       </c>
     </row>
   </sheetData>
